--- a/Rdata/GO_term_analysis/R_Maaslin2/MaAsLin2_COVIRT19_bac_pseq_no_neg/Significant_Go_terms_for_Beth_Maaslin2.xlsx
+++ b/Rdata/GO_term_analysis/R_Maaslin2/MaAsLin2_COVIRT19_bac_pseq_no_neg/Significant_Go_terms_for_Beth_Maaslin2.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\microbial\Rdata\GO_term_analysis\R_Maaslin2\covirt_bac_pseq_no_neg_maaslin3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\microbial\Rdata\GO_term_analysis\R_Maaslin2\MaAsLin2_COVIRT19_bac_pseq_no_neg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1404713A-20FE-4950-939B-8673F7325938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D14D1BC-415D-46A6-8EB5-DFF1EBEDE1FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17190" yWindow="0" windowWidth="17205" windowHeight="21000"/>
+    <workbookView xWindow="16635" yWindow="15" windowWidth="17190" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="4" r:id="rId1"/>
     <sheet name="significant_results" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="294">
   <si>
     <t>metadata</t>
   </si>
@@ -53,363 +64,42 @@
     <t>Control_Sick</t>
   </si>
   <si>
-    <t>GO.0034660</t>
-  </si>
-  <si>
-    <t>GO.0016740</t>
-  </si>
-  <si>
-    <t>GO.0140098</t>
-  </si>
-  <si>
-    <t>GO.0043170</t>
-  </si>
-  <si>
-    <t>GO.0016070</t>
-  </si>
-  <si>
-    <t>GO.0019538</t>
-  </si>
-  <si>
-    <t>GO.0043168</t>
-  </si>
-  <si>
-    <t>GO.1901362</t>
-  </si>
-  <si>
-    <t>GO.0044260</t>
-  </si>
-  <si>
-    <t>GO.0003676</t>
-  </si>
-  <si>
-    <t>GO.0065007</t>
-  </si>
-  <si>
-    <t>GO.0003677</t>
-  </si>
-  <si>
-    <t>GO.0016772</t>
-  </si>
-  <si>
-    <t>GO.0009987</t>
-  </si>
-  <si>
-    <t>GO.0050794</t>
-  </si>
-  <si>
-    <t>GO.0090304</t>
-  </si>
-  <si>
-    <t>GO.0050789</t>
-  </si>
-  <si>
-    <t>GO.0016829</t>
-  </si>
-  <si>
-    <t>GO.0016779</t>
-  </si>
-  <si>
-    <t>GO.0034645</t>
-  </si>
-  <si>
-    <t>GO.0044281</t>
-  </si>
-  <si>
-    <t>GO.0044283</t>
-  </si>
-  <si>
-    <t>GO.0009059</t>
-  </si>
-  <si>
-    <t>GO.0019438</t>
-  </si>
-  <si>
-    <t>GO.0044262</t>
-  </si>
-  <si>
-    <t>GO.1901566</t>
-  </si>
-  <si>
-    <t>GO.0006139</t>
-  </si>
-  <si>
-    <t>GO.0034641</t>
-  </si>
-  <si>
-    <t>GO.0006793</t>
-  </si>
-  <si>
-    <t>GO.0006796</t>
-  </si>
-  <si>
-    <t>GO.1901265</t>
-  </si>
-  <si>
-    <t>GO.0000166</t>
-  </si>
-  <si>
-    <t>GO.0036094</t>
-  </si>
-  <si>
-    <t>GO.0006082</t>
-  </si>
-  <si>
-    <t>GO.0044249</t>
-  </si>
-  <si>
-    <t>GO.1901576</t>
-  </si>
-  <si>
-    <t>GO.0043436</t>
-  </si>
-  <si>
-    <t>GO.0019752</t>
-  </si>
-  <si>
-    <t>GO.0044238</t>
-  </si>
-  <si>
-    <t>GO.0005975</t>
-  </si>
-  <si>
-    <t>GO.0008652</t>
-  </si>
-  <si>
-    <t>GO.0044877</t>
-  </si>
-  <si>
-    <t>GO.0016835</t>
-  </si>
-  <si>
-    <t>GO.0046483</t>
-  </si>
-  <si>
-    <t>GO.0016836</t>
-  </si>
-  <si>
-    <t>GO.0016053</t>
-  </si>
-  <si>
-    <t>GO.0046394</t>
-  </si>
-  <si>
-    <t>GO.0006520</t>
-  </si>
-  <si>
-    <t>GO.0009072</t>
-  </si>
-  <si>
-    <t>GO.0046417</t>
-  </si>
-  <si>
-    <t>GO.0009423</t>
-  </si>
-  <si>
-    <t>GO.0009073</t>
-  </si>
-  <si>
-    <t>GO.0043650</t>
-  </si>
-  <si>
-    <t>GO.0003855</t>
-  </si>
-  <si>
-    <t>GO.0097367</t>
-  </si>
-  <si>
-    <t>GO.0032553</t>
-  </si>
-  <si>
-    <t>GO.0043648</t>
-  </si>
-  <si>
-    <t>GO.0006807</t>
-  </si>
-  <si>
-    <t>GO.0003674</t>
-  </si>
-  <si>
-    <t>GO.0032555</t>
-  </si>
-  <si>
-    <t>GO.0017076</t>
-  </si>
-  <si>
-    <t>GO.0051540</t>
-  </si>
-  <si>
-    <t>GO.0004518</t>
-  </si>
-  <si>
-    <t>GO.0051536</t>
-  </si>
-  <si>
-    <t>GO.0035639</t>
-  </si>
-  <si>
-    <t>GO.0009058</t>
-  </si>
-  <si>
-    <t>GO.0051539</t>
-  </si>
-  <si>
-    <t>GO.0071941</t>
-  </si>
-  <si>
-    <t>GO.0009399</t>
-  </si>
-  <si>
-    <t>GO.0003824</t>
-  </si>
-  <si>
-    <t>GO.0016874</t>
-  </si>
-  <si>
-    <t>GO.0008150</t>
-  </si>
-  <si>
-    <t>GO.0044271</t>
-  </si>
-  <si>
-    <t>GO.0055086</t>
-  </si>
-  <si>
-    <t>GO.0006725</t>
-  </si>
-  <si>
-    <t>GO.1901564</t>
-  </si>
-  <si>
-    <t>GO.0019637</t>
-  </si>
-  <si>
-    <t>GO.0016788</t>
-  </si>
-  <si>
-    <t>GO.0016817</t>
-  </si>
-  <si>
-    <t>GO.0016818</t>
-  </si>
-  <si>
-    <t>GO.0016462</t>
-  </si>
-  <si>
-    <t>GO.0016787</t>
-  </si>
-  <si>
-    <t>GO.0008233</t>
-  </si>
-  <si>
-    <t>GO.0006810</t>
-  </si>
-  <si>
-    <t>GO.0006753</t>
-  </si>
-  <si>
-    <t>GO.0009117</t>
-  </si>
-  <si>
-    <t>GO.0051234</t>
-  </si>
-  <si>
-    <t>GO.0017111</t>
-  </si>
-  <si>
-    <t>GO.0051179</t>
-  </si>
-  <si>
-    <t>GO.0043167</t>
-  </si>
-  <si>
-    <t>GO.0140096</t>
-  </si>
-  <si>
-    <t>GO.0072521</t>
-  </si>
-  <si>
     <t>GO_Tag</t>
   </si>
   <si>
-    <t>biological_process</t>
-  </si>
-  <si>
     <t>transport</t>
   </si>
   <si>
     <t>localization</t>
   </si>
   <si>
-    <t>amino acid activation</t>
-  </si>
-  <si>
-    <t>scavenger receptor activity</t>
-  </si>
-  <si>
-    <t>galactoside binding</t>
-  </si>
-  <si>
     <t>macromolecule metabolic process</t>
   </si>
   <si>
-    <t>cellular response to dsRNA</t>
-  </si>
-  <si>
-    <t>non reproductive fruiting body development</t>
-  </si>
-  <si>
-    <t>deaminase activity</t>
-  </si>
-  <si>
     <t>organic cyclic compound biosynthetic process</t>
   </si>
   <si>
     <t>cellular macromolecule metabolic process</t>
   </si>
   <si>
-    <t>dynein light intermediate chain binding</t>
-  </si>
-  <si>
     <t>biological regulation</t>
   </si>
   <si>
-    <t>alcohol dehydrogenase  acceptor  activity</t>
-  </si>
-  <si>
-    <t>virus receptor activity</t>
-  </si>
-  <si>
     <t>cellular process</t>
   </si>
   <si>
     <t>regulation of cellular process</t>
   </si>
   <si>
-    <t>regulation of myoblast differentiation</t>
-  </si>
-  <si>
     <t>regulation of biological process</t>
   </si>
   <si>
-    <t>apolipoprotein binding</t>
-  </si>
-  <si>
-    <t>isobutyryl CoA mutase activity</t>
-  </si>
-  <si>
-    <t>negative regulation of cell activation</t>
-  </si>
-  <si>
     <t>small molecule metabolic process</t>
   </si>
   <si>
     <t>small molecule biosynthetic process</t>
   </si>
   <si>
-    <t>phenol containing compound metabolic process</t>
-  </si>
-  <si>
     <t>aromatic compound biosynthetic process</t>
   </si>
   <si>
@@ -419,27 +109,12 @@
     <t>organonitrogen compound biosynthetic process</t>
   </si>
   <si>
-    <t>response to ionizing radiation</t>
-  </si>
-  <si>
     <t>cellular nitrogen compound metabolic process</t>
   </si>
   <si>
     <t>phosphorus metabolic process</t>
   </si>
   <si>
-    <t>superoxide metabolic process</t>
-  </si>
-  <si>
-    <t>serine hydrolase activity</t>
-  </si>
-  <si>
-    <t>oxidoreductase activity  acting on the aldehyde or oxo group of donors  disulfide as acceptor</t>
-  </si>
-  <si>
-    <t>polyamine binding</t>
-  </si>
-  <si>
     <t>organic acid metabolic process</t>
   </si>
   <si>
@@ -452,114 +127,30 @@
     <t>oxoacid metabolic process</t>
   </si>
   <si>
-    <t>chromatin maintenance</t>
-  </si>
-  <si>
     <t>primary metabolic process</t>
   </si>
   <si>
     <t>carbohydrate metabolic process</t>
   </si>
   <si>
-    <t>cholesterol transport</t>
-  </si>
-  <si>
-    <t>extracellular matrix structural constituent</t>
-  </si>
-  <si>
-    <t>catalytic activity  acting on a tRNA</t>
-  </si>
-  <si>
     <t>heterocycle metabolic process</t>
   </si>
   <si>
-    <t>cyanate hydratase activity</t>
-  </si>
-  <si>
-    <t>endodermal cell differentiation</t>
-  </si>
-  <si>
-    <t>1 butanol metabolic process</t>
-  </si>
-  <si>
-    <t>positive regulation of superoxide dismutase activity</t>
-  </si>
-  <si>
-    <t>myo inositol hexakisphosphate metabolic process</t>
-  </si>
-  <si>
-    <t>signal transduction involved in mitotic cell cycle checkpoint</t>
-  </si>
-  <si>
-    <t>regulation of fucose catabolic process</t>
-  </si>
-  <si>
-    <t>methanogenesis  from acetate</t>
-  </si>
-  <si>
-    <t>Malpighian tubule morphogenesis</t>
-  </si>
-  <si>
-    <t>6 7 dihydropteridine reductase activity</t>
-  </si>
-  <si>
-    <t>lipoamide binding</t>
-  </si>
-  <si>
-    <t>imidazoleglycerol phosphate dehydratase activity</t>
-  </si>
-  <si>
-    <t>mitigation of host defenses by symbiont</t>
-  </si>
-  <si>
     <t>nitrogen compound metabolic process</t>
   </si>
   <si>
-    <t>energy transducer activity</t>
-  </si>
-  <si>
-    <t>GDP D glucose phosphorylase activity</t>
-  </si>
-  <si>
-    <t>enoyl CoA hydratase activity</t>
-  </si>
-  <si>
-    <t>protein transporter activity</t>
-  </si>
-  <si>
-    <t>oxo acid lyase activity</t>
-  </si>
-  <si>
-    <t>oxidoreductase activity  acting on NAD P H</t>
-  </si>
-  <si>
-    <t>growth factor receptor binding</t>
-  </si>
-  <si>
     <t>biosynthetic process</t>
   </si>
   <si>
-    <t>tropomyosin binding</t>
-  </si>
-  <si>
     <t>nitrogen cycle metabolic process</t>
   </si>
   <si>
     <t>nitrogen fixation</t>
   </si>
   <si>
-    <t>drug binding</t>
-  </si>
-  <si>
-    <t>catalytic activity  acting on DNA</t>
-  </si>
-  <si>
     <t>cellular nitrogen compound biosynthetic process</t>
   </si>
   <si>
-    <t>salivary gland morphogenesis</t>
-  </si>
-  <si>
     <t>cellular aromatic compound metabolic process</t>
   </si>
   <si>
@@ -569,45 +160,9 @@
     <t>organophosphate metabolic process</t>
   </si>
   <si>
-    <t>oxygen binding</t>
-  </si>
-  <si>
-    <t>signaling receptor activator activity</t>
-  </si>
-  <si>
-    <t>nitrite reductase activity</t>
-  </si>
-  <si>
-    <t>RNA polymerase III general transcription initiation factor binding</t>
-  </si>
-  <si>
-    <t>amide binding</t>
-  </si>
-  <si>
-    <t>tocopherol cyclase activity</t>
-  </si>
-  <si>
-    <t>regulation of heterotypic cell cell adhesion</t>
-  </si>
-  <si>
-    <t>ubiquinone 6 biosynthetic process</t>
-  </si>
-  <si>
     <t>establishment of localization</t>
   </si>
   <si>
-    <t>undecaprenyl diphosphatase activity</t>
-  </si>
-  <si>
-    <t>virion binding</t>
-  </si>
-  <si>
-    <t>laminin binding</t>
-  </si>
-  <si>
-    <t>somatic muscle development</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -624,12 +179,747 @@
   </si>
   <si>
     <t>2="COVID19 sig. diff. from both healthy AND sick"</t>
+  </si>
+  <si>
+    <t>GO:0006810</t>
+  </si>
+  <si>
+    <t>GO:0051179</t>
+  </si>
+  <si>
+    <t>GO:0051234</t>
+  </si>
+  <si>
+    <t>GO:0004518</t>
+  </si>
+  <si>
+    <t>nuclease activity</t>
+  </si>
+  <si>
+    <t>GO:0006725</t>
+  </si>
+  <si>
+    <t>GO:1901564</t>
+  </si>
+  <si>
+    <t>GO:0003677</t>
+  </si>
+  <si>
+    <t>DNA binding</t>
+  </si>
+  <si>
+    <t>GO:0003676</t>
+  </si>
+  <si>
+    <t>nucleic acid binding</t>
+  </si>
+  <si>
+    <t>GO:0016829</t>
+  </si>
+  <si>
+    <t>lyase activity</t>
+  </si>
+  <si>
+    <t>GO:0009399</t>
+  </si>
+  <si>
+    <t>GO:0071941</t>
+  </si>
+  <si>
+    <t>GO:0051539</t>
+  </si>
+  <si>
+    <t>4 iron  4 sulfur cluster binding</t>
+  </si>
+  <si>
+    <t>GO:0006520</t>
+  </si>
+  <si>
+    <t>cellular amino acid metabolic process</t>
+  </si>
+  <si>
+    <t>GO:0019438</t>
+  </si>
+  <si>
+    <t>GO:1901566</t>
+  </si>
+  <si>
+    <t>GO:0008652</t>
+  </si>
+  <si>
+    <t>cellular amino acid biosynthetic process</t>
+  </si>
+  <si>
+    <t>GO:0016874</t>
+  </si>
+  <si>
+    <t>ligase activity</t>
+  </si>
+  <si>
+    <t>GO:1901576</t>
+  </si>
+  <si>
+    <t>GO:0006807</t>
+  </si>
+  <si>
+    <t>GO:0044249</t>
+  </si>
+  <si>
+    <t>GO:1901362</t>
+  </si>
+  <si>
+    <t>GO:0051536</t>
+  </si>
+  <si>
+    <t>iron sulfur cluster binding</t>
+  </si>
+  <si>
+    <t>GO:0019752</t>
+  </si>
+  <si>
+    <t>carboxylic acid metabolic process</t>
+  </si>
+  <si>
+    <t>GO:0043436</t>
+  </si>
+  <si>
+    <t>GO:0006082</t>
+  </si>
+  <si>
+    <t>GO:0051540</t>
+  </si>
+  <si>
+    <t>metal cluster binding</t>
+  </si>
+  <si>
+    <t>GO:0044283</t>
+  </si>
+  <si>
+    <t>GO:0046394</t>
+  </si>
+  <si>
+    <t>carboxylic acid biosynthetic process</t>
+  </si>
+  <si>
+    <t>GO:0016053</t>
+  </si>
+  <si>
+    <t>organic acid biosynthetic process</t>
+  </si>
+  <si>
+    <t>GO:0044281</t>
+  </si>
+  <si>
+    <t>GO:0009058</t>
+  </si>
+  <si>
+    <t>GO:0140096</t>
+  </si>
+  <si>
+    <t>catalytic activity  acting on a protein</t>
+  </si>
+  <si>
+    <t>GO:0008233</t>
+  </si>
+  <si>
+    <t>peptidase activity</t>
+  </si>
+  <si>
+    <t>GO:0016787</t>
+  </si>
+  <si>
+    <t>hydrolase activity</t>
+  </si>
+  <si>
+    <t>GO:0003674</t>
+  </si>
+  <si>
+    <t>molecular function</t>
+  </si>
+  <si>
+    <t>GO:0003824</t>
+  </si>
+  <si>
+    <t>catalytic activity</t>
+  </si>
+  <si>
+    <t>GO.0016740.transferase.activity</t>
+  </si>
+  <si>
+    <t>GO.0009987.cellular.process</t>
+  </si>
+  <si>
+    <t>GO.0043170.macromolecule.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0016772.transferase.activity..transferring.phosphorus.containing.groups</t>
+  </si>
+  <si>
+    <t>GO.0016070.RNA.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0034660.ncRNA.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0016779.nucleotidyltransferase.activity</t>
+  </si>
+  <si>
+    <t>GO.0090304.nucleic.acid.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0034641.cellular.nitrogen.compound.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0006139.nucleobase.containing.compound.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0008150.biological_process</t>
+  </si>
+  <si>
+    <t>GO.0140098.catalytic.activity..acting.on.RNA</t>
+  </si>
+  <si>
+    <t>GO.0044260.cellular.macromolecule.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0065007.biological.regulation</t>
+  </si>
+  <si>
+    <t>GO.0044238.primary.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0046483.heterocycle.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0044262.cellular.carbohydrate.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0050794.regulation.of.cellular.process</t>
+  </si>
+  <si>
+    <t>GO.0050789.regulation.of.biological.process</t>
+  </si>
+  <si>
+    <t>GO.0005975.carbohydrate.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0036094.small.molecule.binding</t>
+  </si>
+  <si>
+    <t>GO.1901265.nucleoside.phosphate.binding</t>
+  </si>
+  <si>
+    <t>GO.0000166.nucleotide.binding</t>
+  </si>
+  <si>
+    <t>GO.0043168.anion.binding</t>
+  </si>
+  <si>
+    <t>GO.0034645.cellular.macromolecule.biosynthetic.process</t>
+  </si>
+  <si>
+    <t>GO.0009059.macromolecule.biosynthetic.process</t>
+  </si>
+  <si>
+    <t>GO.0006793.phosphorus.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0006796.phosphate.containing.compound.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0006725.cellular.aromatic.compound.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0019538.protein.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0043167.ion.binding</t>
+  </si>
+  <si>
+    <t>GO.0044271.cellular.nitrogen.compound.biosynthetic.process</t>
+  </si>
+  <si>
+    <t>GO.0097367.carbohydrate.derivative.binding</t>
+  </si>
+  <si>
+    <t>GO.0032553.ribonucleotide.binding</t>
+  </si>
+  <si>
+    <t>GO.0017076.purine.nucleotide.binding</t>
+  </si>
+  <si>
+    <t>GO.0032555.purine.ribonucleotide.binding</t>
+  </si>
+  <si>
+    <t>GO.0035639.purine.ribonucleoside.triphosphate.binding</t>
+  </si>
+  <si>
+    <t>GO.0016817.hydrolase.activity..acting.on.acid.anhydrides</t>
+  </si>
+  <si>
+    <t>GO.0016818.hydrolase.activity..acting.on.acid.anhydrides..in.phosphorus.containing.anhydrides</t>
+  </si>
+  <si>
+    <t>GO.0016462.pyrophosphatase.activity</t>
+  </si>
+  <si>
+    <t>GO.0044877.protein.containing.complex.binding</t>
+  </si>
+  <si>
+    <t>GO.0017111.nucleoside.triphosphatase.activity</t>
+  </si>
+  <si>
+    <t>GO.0072521.purine.containing.compound.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0009117.nucleotide.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0006753.nucleoside.phosphate.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0019637.organophosphate.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0055086.nucleobase.containing.small.molecule.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0043648.dicarboxylic.acid.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0009073.aromatic.amino.acid.family.biosynthetic.process</t>
+  </si>
+  <si>
+    <t>GO.0009072.aromatic.amino.acid.family.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0016788.hydrolase.activity..acting.on.ester.bonds</t>
+  </si>
+  <si>
+    <t>GO.0043650.dicarboxylic.acid.biosynthetic.process</t>
+  </si>
+  <si>
+    <t>GO.0046417.chorismate.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0003855.3.dehydroquinate.dehydratase.activity</t>
+  </si>
+  <si>
+    <t>GO.0009423.chorismate.biosynthetic.process</t>
+  </si>
+  <si>
+    <t>GO.0016836.hydro.lyase.activity</t>
+  </si>
+  <si>
+    <t>GO.0016835.carbon.oxygen.lyase.activity</t>
+  </si>
+  <si>
+    <t>GO.1901362.organic.cyclic.compound.biosynthetic.process</t>
+  </si>
+  <si>
+    <t>GO.0006810.transport</t>
+  </si>
+  <si>
+    <t>GO.0051179.localization</t>
+  </si>
+  <si>
+    <t>GO.0051234.establishment.of.localization</t>
+  </si>
+  <si>
+    <t>GO.0004518.nuclease.activity</t>
+  </si>
+  <si>
+    <t>GO.1901564.organonitrogen.compound.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0003677.DNA.binding</t>
+  </si>
+  <si>
+    <t>GO.0003676.nucleic.acid.binding</t>
+  </si>
+  <si>
+    <t>GO.0016829.lyase.activity</t>
+  </si>
+  <si>
+    <t>GO.0009399.nitrogen.fixation</t>
+  </si>
+  <si>
+    <t>GO.0071941.nitrogen.cycle.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0051539.4.iron..4.sulfur.cluster.binding</t>
+  </si>
+  <si>
+    <t>GO.0006520.cellular.amino.acid.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0019438.aromatic.compound.biosynthetic.process</t>
+  </si>
+  <si>
+    <t>GO.1901566.organonitrogen.compound.biosynthetic.process</t>
+  </si>
+  <si>
+    <t>GO.0008652.cellular.amino.acid.biosynthetic.process</t>
+  </si>
+  <si>
+    <t>GO.0016874.ligase.activity</t>
+  </si>
+  <si>
+    <t>GO.1901576.organic.substance.biosynthetic.process</t>
+  </si>
+  <si>
+    <t>GO.0006807.nitrogen.compound.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0044249.cellular.biosynthetic.process</t>
+  </si>
+  <si>
+    <t>GO.0051536.iron.sulfur.cluster.binding</t>
+  </si>
+  <si>
+    <t>GO.0019752.carboxylic.acid.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0043436.oxoacid.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0006082.organic.acid.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0051540.metal.cluster.binding</t>
+  </si>
+  <si>
+    <t>GO.0044283.small.molecule.biosynthetic.process</t>
+  </si>
+  <si>
+    <t>GO.0046394.carboxylic.acid.biosynthetic.process</t>
+  </si>
+  <si>
+    <t>GO.0016053.organic.acid.biosynthetic.process</t>
+  </si>
+  <si>
+    <t>GO.0044281.small.molecule.metabolic.process</t>
+  </si>
+  <si>
+    <t>GO.0009058.biosynthetic.process</t>
+  </si>
+  <si>
+    <t>GO.0140096.catalytic.activity..acting.on.a.protein</t>
+  </si>
+  <si>
+    <t>GO.0008233.peptidase.activity</t>
+  </si>
+  <si>
+    <t>GO.0016787.hydrolase.activity</t>
+  </si>
+  <si>
+    <t>GO.0003674.molecular_function</t>
+  </si>
+  <si>
+    <t>GO.0003824.catalytic.activity</t>
+  </si>
+  <si>
+    <t>transferase activity</t>
+  </si>
+  <si>
+    <t>transferase activity  transferring phosphorus containing groups</t>
+  </si>
+  <si>
+    <t>RNA metabolic process</t>
+  </si>
+  <si>
+    <t>ncRNA metabolic process</t>
+  </si>
+  <si>
+    <t>nucleotidyltransferase activity</t>
+  </si>
+  <si>
+    <t>nucleic acid metabolic process</t>
+  </si>
+  <si>
+    <t>nucleobase containing compound metabolic process</t>
+  </si>
+  <si>
+    <t>catalytic activity  acting on RNA</t>
+  </si>
+  <si>
+    <t>small molecule binding</t>
+  </si>
+  <si>
+    <t>nucleoside phosphate binding</t>
+  </si>
+  <si>
+    <t>nucleotide binding</t>
+  </si>
+  <si>
+    <t>anion binding</t>
+  </si>
+  <si>
+    <t>cellular macromolecule biosynthetic process</t>
+  </si>
+  <si>
+    <t>macromolecule biosynthetic process</t>
+  </si>
+  <si>
+    <t>phosphate containing compound metabolic process</t>
+  </si>
+  <si>
+    <t>protein metabolic process</t>
+  </si>
+  <si>
+    <t>ion binding</t>
+  </si>
+  <si>
+    <t>carbohydrate derivative binding</t>
+  </si>
+  <si>
+    <t>ribonucleotide binding</t>
+  </si>
+  <si>
+    <t>purine nucleotide binding</t>
+  </si>
+  <si>
+    <t>purine ribonucleotide binding</t>
+  </si>
+  <si>
+    <t>purine ribonucleoside triphosphate binding</t>
+  </si>
+  <si>
+    <t>hydrolase activity  acting on acid anhydrides</t>
+  </si>
+  <si>
+    <t>hydrolase activity  acting on acid anhydrides  in phosphorus containing anhydrides</t>
+  </si>
+  <si>
+    <t>pyrophosphatase activity</t>
+  </si>
+  <si>
+    <t>protein containing complex binding</t>
+  </si>
+  <si>
+    <t>nucleoside triphosphatase activity</t>
+  </si>
+  <si>
+    <t>purine containing compound metabolic process</t>
+  </si>
+  <si>
+    <t>nucleotide metabolic process</t>
+  </si>
+  <si>
+    <t>nucleoside phosphate metabolic process</t>
+  </si>
+  <si>
+    <t>nucleobase containing small molecule metabolic process</t>
+  </si>
+  <si>
+    <t>dicarboxylic acid metabolic process</t>
+  </si>
+  <si>
+    <t>aromatic amino acid family biosynthetic process</t>
+  </si>
+  <si>
+    <t>aromatic amino acid family metabolic process</t>
+  </si>
+  <si>
+    <t>hydrolase activity  acting on ester bonds</t>
+  </si>
+  <si>
+    <t>dicarboxylic acid biosynthetic process</t>
+  </si>
+  <si>
+    <t>chorismate metabolic process</t>
+  </si>
+  <si>
+    <t>3 dehydroquinate dehydratase activity</t>
+  </si>
+  <si>
+    <t>chorismate biosynthetic process</t>
+  </si>
+  <si>
+    <t>hydro lyase activity</t>
+  </si>
+  <si>
+    <t>carbon oxygen lyase activity</t>
+  </si>
+  <si>
+    <t>biological process</t>
+  </si>
+  <si>
+    <t>phyloseq_taxid</t>
+  </si>
+  <si>
+    <t>GO:0016740</t>
+  </si>
+  <si>
+    <t>GO:0009987</t>
+  </si>
+  <si>
+    <t>GO:0043170</t>
+  </si>
+  <si>
+    <t>GO:0016772</t>
+  </si>
+  <si>
+    <t>GO:0016070</t>
+  </si>
+  <si>
+    <t>GO:0034660</t>
+  </si>
+  <si>
+    <t>GO:0016779</t>
+  </si>
+  <si>
+    <t>GO:0090304</t>
+  </si>
+  <si>
+    <t>GO:0034641</t>
+  </si>
+  <si>
+    <t>GO:0006139</t>
+  </si>
+  <si>
+    <t>GO:0008150</t>
+  </si>
+  <si>
+    <t>GO:0140098</t>
+  </si>
+  <si>
+    <t>GO:0044260</t>
+  </si>
+  <si>
+    <t>GO:0065007</t>
+  </si>
+  <si>
+    <t>GO:0044238</t>
+  </si>
+  <si>
+    <t>GO:0046483</t>
+  </si>
+  <si>
+    <t>GO:0044262</t>
+  </si>
+  <si>
+    <t>GO:0050794</t>
+  </si>
+  <si>
+    <t>GO:0050789</t>
+  </si>
+  <si>
+    <t>GO:0005975</t>
+  </si>
+  <si>
+    <t>GO:0036094</t>
+  </si>
+  <si>
+    <t>GO:1901265</t>
+  </si>
+  <si>
+    <t>GO:0000166</t>
+  </si>
+  <si>
+    <t>GO:0043168</t>
+  </si>
+  <si>
+    <t>GO:0034645</t>
+  </si>
+  <si>
+    <t>GO:0009059</t>
+  </si>
+  <si>
+    <t>GO:0006793</t>
+  </si>
+  <si>
+    <t>GO:0006796</t>
+  </si>
+  <si>
+    <t>GO:0019538</t>
+  </si>
+  <si>
+    <t>GO:0043167</t>
+  </si>
+  <si>
+    <t>GO:0044271</t>
+  </si>
+  <si>
+    <t>GO:0097367</t>
+  </si>
+  <si>
+    <t>GO:0032553</t>
+  </si>
+  <si>
+    <t>GO:0017076</t>
+  </si>
+  <si>
+    <t>GO:0032555</t>
+  </si>
+  <si>
+    <t>GO:0035639</t>
+  </si>
+  <si>
+    <t>GO:0016817</t>
+  </si>
+  <si>
+    <t>GO:0016818</t>
+  </si>
+  <si>
+    <t>GO:0016462</t>
+  </si>
+  <si>
+    <t>GO:0044877</t>
+  </si>
+  <si>
+    <t>GO:0017111</t>
+  </si>
+  <si>
+    <t>GO:0072521</t>
+  </si>
+  <si>
+    <t>GO:0009117</t>
+  </si>
+  <si>
+    <t>GO:0006753</t>
+  </si>
+  <si>
+    <t>GO:0019637</t>
+  </si>
+  <si>
+    <t>GO:0055086</t>
+  </si>
+  <si>
+    <t>GO:0043648</t>
+  </si>
+  <si>
+    <t>GO:0009073</t>
+  </si>
+  <si>
+    <t>GO:0009072</t>
+  </si>
+  <si>
+    <t>GO:0016788</t>
+  </si>
+  <si>
+    <t>GO:0043650</t>
+  </si>
+  <si>
+    <t>GO:0046417</t>
+  </si>
+  <si>
+    <t>GO:0003855</t>
+  </si>
+  <si>
+    <t>GO:0009423</t>
+  </si>
+  <si>
+    <t>GO:0016836</t>
+  </si>
+  <si>
+    <t>GO:0016835</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1467,11 +1757,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,27 +1773,27 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>199</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1511,10 +1801,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1522,10 +1812,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1533,10 +1823,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1544,10 +1834,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1555,972 +1845,576 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>186</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>155</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>2</v>
-      </c>
-      <c r="B60" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>2</v>
-      </c>
-      <c r="B61" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>2</v>
-      </c>
-      <c r="B62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>2</v>
-      </c>
-      <c r="B63" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>2</v>
-      </c>
-      <c r="B64" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>2</v>
-      </c>
-      <c r="B65" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>2</v>
-      </c>
-      <c r="B66" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>2</v>
-      </c>
-      <c r="B67" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>2</v>
-      </c>
-      <c r="B68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C68" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>2</v>
-      </c>
-      <c r="B69" t="s">
-        <v>45</v>
-      </c>
-      <c r="C69" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>1</v>
-      </c>
-      <c r="B72" t="s">
-        <v>36</v>
-      </c>
-      <c r="C72" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>1</v>
-      </c>
-      <c r="B73" t="s">
-        <v>94</v>
-      </c>
-      <c r="C73" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>1</v>
-      </c>
-      <c r="B74" t="s">
-        <v>67</v>
-      </c>
-      <c r="C74" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>1</v>
-      </c>
-      <c r="B75" t="s">
-        <v>92</v>
-      </c>
-      <c r="C75" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>1</v>
-      </c>
-      <c r="B76" t="s">
-        <v>75</v>
-      </c>
-      <c r="C76" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>1</v>
-      </c>
-      <c r="B77" t="s">
-        <v>95</v>
-      </c>
-      <c r="C77" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>1</v>
-      </c>
-      <c r="B78" t="s">
-        <v>90</v>
-      </c>
-      <c r="C78" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>1</v>
-      </c>
-      <c r="B79" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>1</v>
-      </c>
-      <c r="B80" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>1</v>
-      </c>
-      <c r="B81" t="s">
-        <v>89</v>
-      </c>
-      <c r="C81" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>1</v>
-      </c>
-      <c r="B82" t="s">
-        <v>80</v>
-      </c>
-      <c r="C82" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>1</v>
-      </c>
-      <c r="B83" t="s">
-        <v>97</v>
-      </c>
-      <c r="C83" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>1</v>
-      </c>
-      <c r="B84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>1</v>
-      </c>
-      <c r="B85" t="s">
-        <v>99</v>
-      </c>
-      <c r="C85" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>1</v>
-      </c>
-      <c r="B86" t="s">
-        <v>48</v>
-      </c>
-      <c r="C86" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>1</v>
-      </c>
-      <c r="B87" t="s">
-        <v>34</v>
-      </c>
-      <c r="C87" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>1</v>
-      </c>
-      <c r="B88" t="s">
-        <v>82</v>
-      </c>
-      <c r="C88" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>1</v>
-      </c>
-      <c r="B89" t="s">
-        <v>98</v>
-      </c>
-      <c r="C89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>1</v>
-      </c>
-      <c r="B90" t="s">
-        <v>96</v>
-      </c>
-      <c r="C90" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>1</v>
-      </c>
-      <c r="B91" t="s">
-        <v>83</v>
-      </c>
-      <c r="C91" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>1</v>
-      </c>
-      <c r="B92" t="s">
-        <v>101</v>
-      </c>
-      <c r="C92" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>1</v>
-      </c>
-      <c r="B93" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>1</v>
-      </c>
-      <c r="B94" t="s">
         <v>100</v>
       </c>
-      <c r="C94" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>1</v>
-      </c>
-      <c r="B95" t="s">
-        <v>85</v>
-      </c>
-      <c r="C95" t="s">
-        <v>180</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C95">
-    <sortCondition descending="1" ref="A4:A95"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C59">
+    <sortCondition descending="1" ref="A4:A59"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
@@ -2531,27 +2425,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J159"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="88.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -2571,13 +2469,16 @@
       <c r="J1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -2603,13 +2504,17 @@
       <c r="J2" s="1">
         <v>9.2076578609592396E-7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -2635,13 +2540,17 @@
       <c r="J3" s="1">
         <v>9.2076578609592396E-7</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2667,13 +2576,17 @@
       <c r="J4" s="1">
         <v>9.2076578609592396E-7</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>109</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -2699,13 +2612,17 @@
       <c r="J5" s="1">
         <v>3.4656647514565599E-6</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -2731,13 +2648,17 @@
       <c r="J6" s="1">
         <v>4.1738334729396001E-6</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -2763,13 +2684,17 @@
       <c r="J7" s="1">
         <v>2.3493394213213298E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>261</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -2778,30 +2703,33 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>7.3595746690253002E-3</v>
+        <v>1.85891549580183E-3</v>
       </c>
       <c r="F8">
-        <v>1.53278990869697E-3</v>
+        <v>3.8356575609505998E-4</v>
       </c>
       <c r="G8">
         <v>141</v>
       </c>
       <c r="H8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I8" s="1">
-        <v>4.68849808279962E-6</v>
+        <v>4.14767688645262E-6</v>
       </c>
       <c r="J8">
         <v>1.35966444401189E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -2810,30 +2738,33 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>1.85891549580183E-3</v>
+        <v>7.3595746690253002E-3</v>
       </c>
       <c r="F9">
-        <v>3.8356575609505998E-4</v>
+        <v>1.53278990869697E-3</v>
       </c>
       <c r="G9">
         <v>141</v>
       </c>
       <c r="H9">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I9" s="1">
-        <v>4.14767688645262E-6</v>
+        <v>4.68849808279962E-6</v>
       </c>
       <c r="J9">
         <v>1.35966444401189E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -2842,74 +2773,80 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>-2.9108505403949402E-3</v>
+        <v>2.8504318937123E-3</v>
       </c>
       <c r="F10">
-        <v>6.3447366552630104E-4</v>
+        <v>6.1748540924277495E-4</v>
       </c>
       <c r="G10">
         <v>141</v>
       </c>
       <c r="H10">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I10" s="1">
-        <v>1.15577378909297E-5</v>
+        <v>9.7061207333962808E-6</v>
       </c>
       <c r="J10">
         <v>2.43763199154154E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11">
-        <v>2.8504318937123E-3</v>
+        <v>-2.97445658832181E-3</v>
       </c>
       <c r="F11">
-        <v>6.1748540924277495E-4</v>
+        <v>6.38110179893359E-4</v>
       </c>
       <c r="G11">
         <v>141</v>
       </c>
       <c r="H11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I11" s="1">
-        <v>9.7061207333962808E-6</v>
+        <v>1.1206987897144799E-5</v>
       </c>
       <c r="J11">
         <v>2.43763199154154E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>-2.97445658832181E-3</v>
+        <v>-2.9108505403949402E-3</v>
       </c>
       <c r="F12">
-        <v>6.38110179893359E-4</v>
+        <v>6.3447366552630104E-4</v>
       </c>
       <c r="G12">
         <v>141</v>
@@ -2918,18 +2855,21 @@
         <v>138</v>
       </c>
       <c r="I12" s="1">
-        <v>1.1206987897144799E-5</v>
+        <v>1.15577378909297E-5</v>
       </c>
       <c r="J12">
         <v>2.43763199154154E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -2955,13 +2895,16 @@
       <c r="J13">
         <v>2.9840195296090301E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -2987,13 +2930,16 @@
       <c r="J14">
         <v>4.0189954319122198E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>241</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -3019,13 +2965,16 @@
       <c r="J15">
         <v>4.2520861685023999E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>239</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -3051,13 +3000,16 @@
       <c r="J16">
         <v>4.5044744733013098E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -3083,13 +3035,16 @@
       <c r="J17">
         <v>4.5044744733013098E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>245</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -3115,13 +3070,16 @@
       <c r="J18">
         <v>4.7098014047478498E-4</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -3147,25 +3105,28 @@
       <c r="J19">
         <v>6.1702986564561395E-4</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>2.3717190981846002E-3</v>
+        <v>-4.6434791641636998E-3</v>
       </c>
       <c r="F20">
-        <v>5.8716498072293802E-4</v>
+        <v>1.1432076694407899E-3</v>
       </c>
       <c r="G20">
         <v>141</v>
@@ -3174,30 +3135,33 @@
         <v>135</v>
       </c>
       <c r="I20" s="1">
-        <v>9.5000477063089599E-5</v>
+        <v>9.0787443805726906E-5</v>
       </c>
       <c r="J20">
         <v>1.10200553393184E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>-4.6434791641636998E-3</v>
+        <v>2.3717190981846002E-3</v>
       </c>
       <c r="F21">
-        <v>1.1432076694407899E-3</v>
+        <v>5.8716498072293802E-4</v>
       </c>
       <c r="G21">
         <v>141</v>
@@ -3206,18 +3170,21 @@
         <v>135</v>
       </c>
       <c r="I21" s="1">
-        <v>9.0787443805726906E-5</v>
+        <v>9.5000477063089599E-5</v>
       </c>
       <c r="J21">
         <v>1.10200553393184E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -3243,13 +3210,16 @@
       <c r="J22">
         <v>2.0110912601384199E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -3275,13 +3245,16 @@
       <c r="J23">
         <v>2.4324058750088101E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -3307,13 +3280,16 @@
       <c r="J24">
         <v>2.7269729537430999E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -3339,13 +3315,16 @@
       <c r="J25">
         <v>2.7269729537430999E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
         <v>7</v>
@@ -3371,13 +3350,16 @@
       <c r="J26">
         <v>2.9850861826826798E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
@@ -3403,77 +3385,86 @@
       <c r="J27">
         <v>2.9850861826826798E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28">
-        <v>-2.0512941835580901E-3</v>
+        <v>2.42111537928853E-3</v>
       </c>
       <c r="F28">
-        <v>5.5730189533288298E-4</v>
+        <v>6.5908881129461304E-4</v>
       </c>
       <c r="G28">
         <v>141</v>
       </c>
       <c r="H28">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="I28">
-        <v>3.65595794594E-4</v>
+        <v>3.5922005625598202E-4</v>
       </c>
       <c r="J28">
         <v>3.0292222980645698E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29">
-        <v>2.42111537928853E-3</v>
+        <v>-2.0512941835580901E-3</v>
       </c>
       <c r="F29">
-        <v>6.5908881129461304E-4</v>
+        <v>5.5730189533288298E-4</v>
       </c>
       <c r="G29">
         <v>141</v>
       </c>
       <c r="H29">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="I29">
-        <v>3.5922005625598202E-4</v>
+        <v>3.65595794594E-4</v>
       </c>
       <c r="J29">
         <v>3.0292222980645698E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -3499,13 +3490,16 @@
       <c r="J30">
         <v>3.13890189534685E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="C31" t="s">
         <v>7</v>
@@ -3514,30 +3508,33 @@
         <v>8</v>
       </c>
       <c r="E31">
-        <v>-2.9816724653960302E-3</v>
+        <v>3.2052370847376502E-3</v>
       </c>
       <c r="F31">
-        <v>8.2607899987722697E-4</v>
+        <v>8.8869894354607303E-4</v>
       </c>
       <c r="G31">
         <v>141</v>
       </c>
       <c r="H31">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I31">
-        <v>4.5796105472076199E-4</v>
+        <v>4.5766249987534301E-4</v>
       </c>
       <c r="J31">
         <v>3.4273214417811899E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -3546,30 +3543,33 @@
         <v>8</v>
       </c>
       <c r="E32">
-        <v>3.2052370847376502E-3</v>
+        <v>-2.9816724653960302E-3</v>
       </c>
       <c r="F32">
-        <v>8.8869894354607303E-4</v>
+        <v>8.2607899987722697E-4</v>
       </c>
       <c r="G32">
         <v>141</v>
       </c>
       <c r="H32">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I32">
-        <v>4.5766249987534301E-4</v>
+        <v>4.5796105472076199E-4</v>
       </c>
       <c r="J32">
         <v>3.4273214417811899E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>261</v>
       </c>
       <c r="B33" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="C33" t="s">
         <v>7</v>
@@ -3595,13 +3595,16 @@
       <c r="J33">
         <v>3.57838650997432E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>246</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -3627,13 +3630,16 @@
       <c r="J34">
         <v>4.1601042284530503E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
         <v>7</v>
@@ -3659,13 +3665,16 @@
       <c r="J35">
         <v>4.1601042284530503E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>265</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -3691,13 +3700,16 @@
       <c r="J36">
         <v>4.9193478677528098E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="C37" t="s">
         <v>7</v>
@@ -3723,13 +3735,16 @@
       <c r="J37">
         <v>6.8449035472757996E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>205</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
@@ -3755,13 +3770,16 @@
       <c r="J38">
         <v>6.8449035472757996E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="C39" t="s">
         <v>7</v>
@@ -3787,77 +3805,86 @@
       <c r="J39">
         <v>7.0957731551736999E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>-3.9249893109354903E-3</v>
+        <v>-4.4245682287243201E-3</v>
       </c>
       <c r="F40">
-        <v>1.07758748054325E-3</v>
+        <v>1.3381451125067201E-3</v>
       </c>
       <c r="G40">
         <v>141</v>
       </c>
       <c r="H40">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I40">
-        <v>1.23841999422424E-3</v>
+        <v>1.2374830708288501E-3</v>
       </c>
       <c r="J40">
         <v>7.1828359665006098E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="C41" t="s">
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E41">
-        <v>-4.4245682287243201E-3</v>
+        <v>-3.9249893109354903E-3</v>
       </c>
       <c r="F41">
-        <v>1.3381451125067201E-3</v>
+        <v>1.07758748054325E-3</v>
       </c>
       <c r="G41">
         <v>141</v>
       </c>
       <c r="H41">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I41">
-        <v>1.2374830708288501E-3</v>
+        <v>1.23841999422424E-3</v>
       </c>
       <c r="J41">
         <v>7.1828359665006098E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
@@ -3866,30 +3893,33 @@
         <v>9</v>
       </c>
       <c r="E42">
-        <v>-3.5469445384514698E-3</v>
+        <v>2.9711554837549099E-3</v>
       </c>
       <c r="F42">
-        <v>1.07601738905991E-3</v>
+        <v>8.56627066029187E-4</v>
       </c>
       <c r="G42">
         <v>141</v>
       </c>
       <c r="H42">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I42">
-        <v>1.46567769422082E-3</v>
+        <v>1.31198512352131E-3</v>
       </c>
       <c r="J42">
         <v>7.2348345757283199E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
         <v>7</v>
@@ -3898,10 +3928,10 @@
         <v>9</v>
       </c>
       <c r="E43">
-        <v>2.9711554837549099E-3</v>
+        <v>-3.9001671829299702E-3</v>
       </c>
       <c r="F43">
-        <v>8.56627066029187E-4</v>
+        <v>1.0780394509590299E-3</v>
       </c>
       <c r="G43">
         <v>141</v>
@@ -3910,82 +3940,91 @@
         <v>136</v>
       </c>
       <c r="I43">
-        <v>1.31198512352131E-3</v>
+        <v>1.3329670019961699E-3</v>
       </c>
       <c r="J43">
         <v>7.2348345757283199E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
         <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E44">
-        <v>-4.3672468690164499E-3</v>
+        <v>-3.90162765869774E-3</v>
       </c>
       <c r="F44">
-        <v>1.3352087560578299E-3</v>
+        <v>1.08091961992521E-3</v>
       </c>
       <c r="G44">
         <v>141</v>
       </c>
       <c r="H44">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I44">
-        <v>1.3915219336935001E-3</v>
+        <v>1.37044013813853E-3</v>
       </c>
       <c r="J44">
         <v>7.2348345757283199E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
         <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45">
-        <v>-3.9001671829299702E-3</v>
+        <v>-4.3672468690164499E-3</v>
       </c>
       <c r="F45">
-        <v>1.0780394509590299E-3</v>
+        <v>1.3352087560578299E-3</v>
       </c>
       <c r="G45">
         <v>141</v>
       </c>
       <c r="H45">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I45">
-        <v>1.3329670019961699E-3</v>
+        <v>1.3915219336935001E-3</v>
       </c>
       <c r="J45">
         <v>7.2348345757283199E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>259</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
@@ -3994,30 +4033,33 @@
         <v>9</v>
       </c>
       <c r="E46">
-        <v>-3.90162765869774E-3</v>
+        <v>1.75597308814142E-3</v>
       </c>
       <c r="F46">
-        <v>1.08091961992521E-3</v>
+        <v>5.3609751772272399E-4</v>
       </c>
       <c r="G46">
         <v>141</v>
       </c>
       <c r="H46">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I46">
-        <v>1.37044013813853E-3</v>
+        <v>1.44100195203329E-3</v>
       </c>
       <c r="J46">
         <v>7.2348345757283199E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>205</v>
       </c>
       <c r="C47" t="s">
         <v>7</v>
@@ -4043,13 +4085,16 @@
       <c r="J47">
         <v>7.2348345757283199E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -4058,10 +4103,10 @@
         <v>9</v>
       </c>
       <c r="E48">
-        <v>1.75597308814142E-3</v>
+        <v>-3.5469445384514698E-3</v>
       </c>
       <c r="F48">
-        <v>5.3609751772272399E-4</v>
+        <v>1.07601738905991E-3</v>
       </c>
       <c r="G48">
         <v>141</v>
@@ -4070,18 +4115,21 @@
         <v>137</v>
       </c>
       <c r="I48">
-        <v>1.44100195203329E-3</v>
+        <v>1.46567769422082E-3</v>
       </c>
       <c r="J48">
         <v>7.2348345757283199E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>243</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
@@ -4107,13 +4155,16 @@
       <c r="J49">
         <v>7.5300379869453699E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>252</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
@@ -4139,13 +4190,16 @@
       <c r="J50">
         <v>8.2602055392625596E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>257</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>32</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
@@ -4171,13 +4225,16 @@
       <c r="J51">
         <v>9.7856683248941697E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
@@ -4203,13 +4260,16 @@
       <c r="J52">
         <v>1.1600759511773801E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>258</v>
       </c>
       <c r="B53" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
@@ -4235,13 +4295,16 @@
       <c r="J53">
         <v>1.2242504811520999E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -4267,13 +4330,16 @@
       <c r="J54">
         <v>1.30307453937448E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>277</v>
       </c>
       <c r="B55" t="s">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
@@ -4299,13 +4365,16 @@
       <c r="J55">
         <v>1.32538157493787E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>293</v>
       </c>
       <c r="B56" t="s">
-        <v>148</v>
+        <v>235</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
@@ -4331,13 +4400,16 @@
       <c r="J56">
         <v>1.41411632939543E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
@@ -4363,13 +4435,16 @@
       <c r="J57">
         <v>1.4218341803584099E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>253</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -4395,13 +4470,16 @@
       <c r="J58">
         <v>1.5184778488045E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>292</v>
       </c>
       <c r="B59" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
@@ -4427,13 +4505,16 @@
       <c r="J59">
         <v>1.6475580923348901E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
@@ -4459,13 +4540,16 @@
       <c r="J60">
         <v>1.8541893785646801E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
@@ -4491,13 +4575,16 @@
       <c r="J61">
         <v>1.8561396162447698E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
@@ -4523,13 +4610,16 @@
       <c r="J62">
         <v>1.8561396162447698E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
@@ -4555,13 +4645,16 @@
       <c r="J63">
         <v>1.86089121608933E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>293</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>235</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
@@ -4587,13 +4680,16 @@
       <c r="J64">
         <v>1.9410689826490201E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>58</v>
+        <v>286</v>
       </c>
       <c r="B65" t="s">
-        <v>154</v>
+        <v>228</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
@@ -4619,13 +4715,16 @@
       <c r="J65">
         <v>2.0839903939092599E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>292</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
@@ -4651,13 +4750,16 @@
       <c r="J66">
         <v>2.1633765249511602E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="B67" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
@@ -4666,30 +4768,33 @@
         <v>9</v>
       </c>
       <c r="E67">
-        <v>-1.03757961780567E-3</v>
+        <v>3.1603067385234498E-4</v>
       </c>
       <c r="F67">
-        <v>3.4711850129834099E-4</v>
+        <v>1.1377151994220099E-4</v>
       </c>
       <c r="G67">
         <v>141</v>
       </c>
       <c r="H67">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="I67">
-        <v>6.4284315196713997E-3</v>
+        <v>6.3795681338362897E-3</v>
       </c>
       <c r="J67">
         <v>2.2259643471101001E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>289</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -4698,30 +4803,33 @@
         <v>9</v>
       </c>
       <c r="E68">
-        <v>3.1603067385234498E-4</v>
+        <v>-1.03757961780567E-3</v>
       </c>
       <c r="F68">
-        <v>1.1377151994220099E-4</v>
+        <v>3.4711850129834099E-4</v>
       </c>
       <c r="G68">
         <v>141</v>
       </c>
       <c r="H68">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="I68">
-        <v>6.3795681338362897E-3</v>
+        <v>6.4284315196713997E-3</v>
       </c>
       <c r="J68">
         <v>2.2259643471101001E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>291</v>
       </c>
       <c r="B69" t="s">
-        <v>156</v>
+        <v>233</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -4747,13 +4855,16 @@
       <c r="J69">
         <v>2.3319298095831401E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
@@ -4779,13 +4890,16 @@
       <c r="J70">
         <v>2.3319298095831401E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B71" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
@@ -4794,30 +4908,33 @@
         <v>8</v>
       </c>
       <c r="E71">
-        <v>-1.05140928964069E-3</v>
+        <v>-1.4234346744472601E-3</v>
       </c>
       <c r="F71">
-        <v>3.8172908151051002E-4</v>
+        <v>5.2011299636910797E-4</v>
       </c>
       <c r="G71">
         <v>141</v>
       </c>
       <c r="H71">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="I71">
-        <v>7.3438855269088998E-3</v>
+        <v>7.3404199601600903E-3</v>
       </c>
       <c r="J71">
         <v>2.3996921721730499E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>291</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>233</v>
       </c>
       <c r="C72" t="s">
         <v>7</v>
@@ -4826,30 +4943,33 @@
         <v>8</v>
       </c>
       <c r="E72">
-        <v>-1.4234346744472601E-3</v>
+        <v>-1.05140928964069E-3</v>
       </c>
       <c r="F72">
-        <v>5.2011299636910797E-4</v>
+        <v>3.8172908151051002E-4</v>
       </c>
       <c r="G72">
         <v>141</v>
       </c>
       <c r="H72">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="I72">
-        <v>7.3404199601600903E-3</v>
+        <v>7.3438855269088998E-3</v>
       </c>
       <c r="J72">
         <v>2.3996921721730499E-2</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="C73" t="s">
         <v>7</v>
@@ -4875,89 +4995,98 @@
       <c r="J73">
         <v>2.4364697463144801E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>46</v>
+        <v>290</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>232</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E74">
-        <v>-3.25274603754158E-3</v>
+        <v>-1.0149694979702899E-3</v>
       </c>
       <c r="F74">
-        <v>1.19805733074585E-3</v>
+        <v>3.4570019633236698E-4</v>
       </c>
       <c r="G74">
         <v>141</v>
       </c>
       <c r="H74">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="I74">
-        <v>8.0016296458072494E-3</v>
+        <v>7.8554271133502197E-3</v>
       </c>
       <c r="J74">
         <v>2.46494234169569E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E75">
-        <v>-1.00164022735177E-3</v>
+        <v>-3.25274603754158E-3</v>
       </c>
       <c r="F75">
-        <v>3.3476742695663902E-4</v>
+        <v>1.19805733074585E-3</v>
       </c>
       <c r="G75">
         <v>141</v>
       </c>
       <c r="H75">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I75">
-        <v>8.0392862082592793E-3</v>
+        <v>8.0016296458072494E-3</v>
       </c>
       <c r="J75">
         <v>2.46494234169569E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>288</v>
       </c>
       <c r="B76" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="C76" t="s">
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E76">
-        <v>-1.0242771968373399E-3</v>
+        <v>-1.00164022735177E-3</v>
       </c>
       <c r="F76">
-        <v>3.7726717363384198E-4</v>
+        <v>3.3476742695663902E-4</v>
       </c>
       <c r="G76">
         <v>141</v>
@@ -4966,50 +5095,56 @@
         <v>132</v>
       </c>
       <c r="I76">
-        <v>8.0748111193479407E-3</v>
+        <v>8.0392862082592793E-3</v>
       </c>
       <c r="J76">
         <v>2.46494234169569E-2</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>288</v>
       </c>
       <c r="B77" t="s">
-        <v>159</v>
+        <v>230</v>
       </c>
       <c r="C77" t="s">
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E77">
-        <v>-1.0149694979702899E-3</v>
+        <v>-1.0242771968373399E-3</v>
       </c>
       <c r="F77">
-        <v>3.4570019633236698E-4</v>
+        <v>3.7726717363384198E-4</v>
       </c>
       <c r="G77">
         <v>141</v>
       </c>
       <c r="H77">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="I77">
-        <v>7.8554271133502197E-3</v>
+        <v>8.0748111193479407E-3</v>
       </c>
       <c r="J77">
         <v>2.46494234169569E-2</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
@@ -5035,13 +5170,16 @@
       <c r="J78">
         <v>2.47455708145943E-2</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>63</v>
+        <v>290</v>
       </c>
       <c r="B79" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="C79" t="s">
         <v>7</v>
@@ -5067,13 +5205,16 @@
       <c r="J79">
         <v>2.4883401560566999E-2</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>64</v>
+        <v>269</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
@@ -5099,13 +5240,16 @@
       <c r="J80">
         <v>2.7009790952242499E-2</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>64</v>
+        <v>269</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="C81" t="s">
         <v>7</v>
@@ -5131,13 +5275,16 @@
       <c r="J81">
         <v>2.8803476956810001E-2</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>59</v>
+        <v>289</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="C82" t="s">
         <v>7</v>
@@ -5163,13 +5310,16 @@
       <c r="J82">
         <v>3.0620342824368402E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>65</v>
+        <v>270</v>
       </c>
       <c r="B83" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
@@ -5195,13 +5345,16 @@
       <c r="J83">
         <v>3.09196807352097E-2</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="C84" t="s">
         <v>7</v>
@@ -5227,13 +5380,16 @@
       <c r="J84">
         <v>3.1597274309681997E-2</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
         <v>7</v>
@@ -5259,13 +5415,16 @@
       <c r="J85">
         <v>3.2378706146082598E-2</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>66</v>
+        <v>284</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="C86" t="s">
         <v>7</v>
@@ -5291,13 +5450,16 @@
       <c r="J86">
         <v>3.3791027060834603E-2</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>65</v>
+        <v>270</v>
       </c>
       <c r="B87" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
@@ -5323,13 +5485,16 @@
       <c r="J87">
         <v>3.4389093078736201E-2</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>242</v>
       </c>
       <c r="B88" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="C88" t="s">
         <v>7</v>
@@ -5355,13 +5520,16 @@
       <c r="J88">
         <v>3.5083937424836897E-2</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="B89" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="C89" t="s">
         <v>7</v>
@@ -5387,13 +5555,16 @@
       <c r="J89">
         <v>3.80693791011672E-2</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B90" t="s">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
@@ -5419,13 +5590,16 @@
       <c r="J90">
         <v>3.8845368636986601E-2</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="C91" t="s">
         <v>7</v>
@@ -5451,13 +5625,16 @@
       <c r="J91">
         <v>3.8845368636986601E-2</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>69</v>
+        <v>272</v>
       </c>
       <c r="B92" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="C92" t="s">
         <v>7</v>
@@ -5483,13 +5660,16 @@
       <c r="J92">
         <v>3.922232375556E-2</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>70</v>
+        <v>271</v>
       </c>
       <c r="B93" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
@@ -5515,77 +5695,86 @@
       <c r="J93">
         <v>3.9591091302863299E-2</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>71</v>
+        <v>272</v>
       </c>
       <c r="B94" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E94">
-        <v>-3.3714871291078601E-3</v>
+        <v>7.1405463519657198E-4</v>
       </c>
       <c r="F94">
-        <v>1.3850803134755701E-3</v>
+        <v>2.9235656637193499E-4</v>
       </c>
       <c r="G94">
         <v>141</v>
       </c>
       <c r="H94">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I94">
-        <v>1.6205046879900199E-2</v>
+        <v>1.61818009158071E-2</v>
       </c>
       <c r="J94">
         <v>3.9995434852519697E-2</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B95" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
       <c r="C95" t="s">
         <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E95">
-        <v>7.1405463519657198E-4</v>
+        <v>-3.3714871291078601E-3</v>
       </c>
       <c r="F95">
-        <v>2.9235656637193499E-4</v>
+        <v>1.3850803134755701E-3</v>
       </c>
       <c r="G95">
         <v>141</v>
       </c>
       <c r="H95">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I95">
-        <v>1.61818009158071E-2</v>
+        <v>1.6205046879900199E-2</v>
       </c>
       <c r="J95">
         <v>3.9995434852519697E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>70</v>
+        <v>271</v>
       </c>
       <c r="B96" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
@@ -5611,13 +5800,16 @@
       <c r="J96">
         <v>4.0090160052603102E-2</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B97" t="s">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="C97" t="s">
         <v>7</v>
@@ -5643,13 +5835,16 @@
       <c r="J97">
         <v>4.01243301096409E-2</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B98" t="s">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
@@ -5675,13 +5870,16 @@
       <c r="J98">
         <v>4.2678225541566903E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>74</v>
+        <v>273</v>
       </c>
       <c r="B99" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
@@ -5707,13 +5905,16 @@
       <c r="J99">
         <v>4.31355010010252E-2</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="B100" t="s">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
@@ -5739,13 +5940,16 @@
       <c r="J100">
         <v>4.35617371680974E-2</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>74</v>
+        <v>273</v>
       </c>
       <c r="B101" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
@@ -5771,13 +5975,16 @@
       <c r="J101">
         <v>4.35617371680974E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B102" t="s">
-        <v>171</v>
+        <v>35</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
@@ -5803,13 +6010,16 @@
       <c r="J102">
         <v>4.5470667883105401E-2</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B103" t="s">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
@@ -5835,13 +6045,16 @@
       <c r="J103">
         <v>4.6693415815676098E-2</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>66</v>
+        <v>284</v>
       </c>
       <c r="B104" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
@@ -5867,13 +6080,16 @@
       <c r="J104">
         <v>4.89927202502159E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>37</v>
+        <v>246</v>
       </c>
       <c r="B105" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="C105" t="s">
         <v>7</v>
@@ -5899,13 +6115,16 @@
       <c r="J105">
         <v>5.4255416263071697E-2</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>58</v>
+        <v>286</v>
       </c>
       <c r="B106" t="s">
-        <v>154</v>
+        <v>228</v>
       </c>
       <c r="C106" t="s">
         <v>7</v>
@@ -5931,13 +6150,16 @@
       <c r="J106">
         <v>5.4759026897385502E-2</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B107" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
@@ -5963,13 +6185,16 @@
       <c r="J107">
         <v>5.4856830591944898E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B108" t="s">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
@@ -5995,13 +6220,16 @@
       <c r="J108">
         <v>5.5471639241286598E-2</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>61</v>
+        <v>285</v>
       </c>
       <c r="B109" t="s">
-        <v>157</v>
+        <v>227</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
@@ -6027,13 +6255,16 @@
       <c r="J109">
         <v>5.7453816831741403E-2</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B110" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
@@ -6059,13 +6290,16 @@
       <c r="J110">
         <v>5.75927354559621E-2</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="B111" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
@@ -6091,13 +6325,16 @@
       <c r="J111">
         <v>6.3945311345952702E-2</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>24</v>
+        <v>255</v>
       </c>
       <c r="B112" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
@@ -6123,13 +6360,16 @@
       <c r="J112">
         <v>6.4006449032254706E-2</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
@@ -6155,13 +6395,16 @@
       <c r="J113">
         <v>6.4934932298999798E-2</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B114" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
@@ -6187,13 +6430,16 @@
       <c r="J114">
         <v>6.5521369352782494E-2</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K114" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B115" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="C115" t="s">
         <v>7</v>
@@ -6219,13 +6465,16 @@
       <c r="J115">
         <v>6.6972103826534402E-2</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>53</v>
+        <v>253</v>
       </c>
       <c r="B116" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
@@ -6251,13 +6500,16 @@
       <c r="J116">
         <v>6.7094488517320694E-2</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="B117" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
@@ -6283,13 +6535,16 @@
       <c r="J117">
         <v>7.05181004918118E-2</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B118" t="s">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
@@ -6315,13 +6570,16 @@
       <c r="J118">
         <v>8.1983605048833993E-2</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K118" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B119" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
@@ -6347,13 +6605,16 @@
       <c r="J119">
         <v>9.2138635898681098E-2</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K119" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>22</v>
+        <v>241</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
@@ -6379,13 +6640,16 @@
       <c r="J120">
         <v>9.7242121051814595E-2</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K120" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B121" t="s">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="C121" t="s">
         <v>7</v>
@@ -6411,13 +6675,16 @@
       <c r="J121">
         <v>9.7264014074140606E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K121" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B122" t="s">
-        <v>172</v>
+        <v>65</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
@@ -6443,13 +6710,16 @@
       <c r="J122">
         <v>0.101657976914571</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K122" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="B123" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
@@ -6475,13 +6745,16 @@
       <c r="J123">
         <v>0.10293348092811</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K123" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B124" t="s">
-        <v>173</v>
+        <v>36</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
@@ -6507,13 +6780,16 @@
       <c r="J124">
         <v>0.109083338427648</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B125" t="s">
-        <v>174</v>
+        <v>37</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
@@ -6539,13 +6815,16 @@
       <c r="J125">
         <v>0.11009351371786399</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>82</v>
+        <v>268</v>
       </c>
       <c r="B126" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
@@ -6571,13 +6850,16 @@
       <c r="J126">
         <v>0.110504885526528</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B127" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
@@ -6603,13 +6885,16 @@
       <c r="J127">
         <v>0.118002747751351</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K127" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B128" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
@@ -6635,13 +6920,16 @@
       <c r="J128">
         <v>0.12730456017303199</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K128" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B129" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
@@ -6667,13 +6955,16 @@
       <c r="J129">
         <v>0.129179232045919</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K129" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="B130" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
@@ -6699,13 +6990,16 @@
       <c r="J130">
         <v>0.129221077001</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K130" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="B131" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
@@ -6714,30 +7008,33 @@
         <v>8</v>
       </c>
       <c r="E131">
-        <v>8.95745533244114E-4</v>
+        <v>-6.0849069666926801E-4</v>
       </c>
       <c r="F131">
-        <v>4.9588807487782203E-4</v>
+        <v>3.3690939582885801E-4</v>
       </c>
       <c r="G131">
         <v>141</v>
       </c>
       <c r="H131">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I131">
-        <v>7.3600493157369495E-2</v>
+        <v>7.3248165452861294E-2</v>
       </c>
       <c r="J131">
         <v>0.13034591154587599</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K131" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>83</v>
+        <v>263</v>
       </c>
       <c r="B132" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
@@ -6746,30 +7043,33 @@
         <v>8</v>
       </c>
       <c r="E132">
-        <v>-6.0849069666926801E-4</v>
+        <v>8.95745533244114E-4</v>
       </c>
       <c r="F132">
-        <v>3.3690939582885801E-4</v>
+        <v>4.9588807487782203E-4</v>
       </c>
       <c r="G132">
         <v>141</v>
       </c>
       <c r="H132">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I132">
-        <v>7.3248165452861294E-2</v>
+        <v>7.3600493157369495E-2</v>
       </c>
       <c r="J132">
         <v>0.13034591154587599</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K132" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>84</v>
+        <v>282</v>
       </c>
       <c r="B133" t="s">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
@@ -6778,30 +7078,33 @@
         <v>8</v>
       </c>
       <c r="E133">
-        <v>1.48945502958227E-3</v>
+        <v>-5.9888676740182305E-4</v>
       </c>
       <c r="F133">
-        <v>8.5318269147917803E-4</v>
+        <v>3.41948801883016E-4</v>
       </c>
       <c r="G133">
         <v>141</v>
       </c>
       <c r="H133">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I133">
-        <v>8.3131006992414005E-2</v>
+        <v>8.2266598637399393E-2</v>
       </c>
       <c r="J133">
         <v>0.14392831061373201</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B134" t="s">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
@@ -6827,13 +7130,16 @@
       <c r="J134">
         <v>0.14392831061373201</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K134" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B135" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
@@ -6842,30 +7148,33 @@
         <v>8</v>
       </c>
       <c r="E135">
-        <v>-5.9888676740182305E-4</v>
+        <v>1.48945502958227E-3</v>
       </c>
       <c r="F135">
-        <v>3.41948801883016E-4</v>
+        <v>8.5318269147917803E-4</v>
       </c>
       <c r="G135">
         <v>141</v>
       </c>
       <c r="H135">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="I135">
-        <v>8.2266598637399393E-2</v>
+        <v>8.3131006992414005E-2</v>
       </c>
       <c r="J135">
         <v>0.14392831061373201</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K135" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>87</v>
+        <v>287</v>
       </c>
       <c r="B136" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
@@ -6891,13 +7200,16 @@
       <c r="J136">
         <v>0.149856628237029</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K136" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="B137" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
@@ -6923,13 +7235,16 @@
       <c r="J137">
         <v>0.15342011157705401</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K137" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>89</v>
+        <v>275</v>
       </c>
       <c r="B138" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
@@ -6955,13 +7270,16 @@
       <c r="J138">
         <v>0.15940418684017599</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B139" t="s">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
@@ -6987,13 +7305,16 @@
       <c r="J139">
         <v>0.16174999295811501</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K139" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="B140" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
@@ -7019,13 +7340,16 @@
       <c r="J140">
         <v>0.16174999295811501</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K140" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>39</v>
+        <v>265</v>
       </c>
       <c r="B141" t="s">
-        <v>135</v>
+        <v>209</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
@@ -7051,13 +7375,16 @@
       <c r="J141">
         <v>0.16789933819220601</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K141" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>90</v>
+        <v>276</v>
       </c>
       <c r="B142" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
@@ -7083,13 +7410,16 @@
       <c r="J142">
         <v>0.17038761610299699</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K142" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B143" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
@@ -7115,13 +7445,16 @@
       <c r="J143">
         <v>0.17520969202764999</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K143" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>81</v>
+        <v>248</v>
       </c>
       <c r="B144" t="s">
-        <v>103</v>
+        <v>236</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
@@ -7147,13 +7480,16 @@
       <c r="J144">
         <v>0.177006089164264</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K144" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B145" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
@@ -7179,13 +7515,16 @@
       <c r="J145">
         <v>0.179413171651607</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K145" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="B146" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="C146" t="s">
         <v>7</v>
@@ -7211,13 +7550,16 @@
       <c r="J146">
         <v>0.183218375294455</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K146" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>94</v>
+        <v>281</v>
       </c>
       <c r="B147" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="C147" t="s">
         <v>7</v>
@@ -7243,13 +7585,16 @@
       <c r="J147">
         <v>0.186571723535574</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K147" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>95</v>
+        <v>280</v>
       </c>
       <c r="B148" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="C148" t="s">
         <v>7</v>
@@ -7275,13 +7620,16 @@
       <c r="J148">
         <v>0.19138985997828101</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K148" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="B149" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="C149" t="s">
         <v>7</v>
@@ -7307,13 +7655,16 @@
       <c r="J149">
         <v>0.193255301699715</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K149" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="B150" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
         <v>7</v>
@@ -7339,13 +7690,16 @@
       <c r="J150">
         <v>0.202883678334421</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K150" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B151" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="C151" t="s">
         <v>7</v>
@@ -7371,13 +7725,16 @@
       <c r="J151">
         <v>0.21297480293658499</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K151" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="B152" t="s">
-        <v>190</v>
+        <v>42</v>
       </c>
       <c r="C152" t="s">
         <v>7</v>
@@ -7403,13 +7760,16 @@
       <c r="J152">
         <v>0.213472400781403</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K152" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>97</v>
+        <v>278</v>
       </c>
       <c r="B153" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="C153" t="s">
         <v>7</v>
@@ -7435,13 +7795,16 @@
       <c r="J153">
         <v>0.213472400781403</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K153" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="B154" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="C154" t="s">
         <v>7</v>
@@ -7467,13 +7830,16 @@
       <c r="J154">
         <v>0.215061516702267</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K154" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>99</v>
+        <v>267</v>
       </c>
       <c r="B155" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="C155" t="s">
         <v>7</v>
@@ -7499,13 +7865,16 @@
       <c r="J155">
         <v>0.22255468628689701</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K155" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B156" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="C156" t="s">
         <v>7</v>
@@ -7531,13 +7900,16 @@
       <c r="J156">
         <v>0.233445814721916</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K156" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>28</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="C157" t="s">
         <v>7</v>
@@ -7563,13 +7935,16 @@
       <c r="J157">
         <v>0.24120594037635401</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K157" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>101</v>
+        <v>279</v>
       </c>
       <c r="B158" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="C158" t="s">
         <v>7</v>
@@ -7595,13 +7970,16 @@
       <c r="J158">
         <v>0.24384849873644501</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K158" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B159" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="C159" t="s">
         <v>7</v>
@@ -7627,8 +8005,14 @@
       <c r="J159">
         <v>0.248824496628159</v>
       </c>
+      <c r="K159" t="s">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K159">
+    <sortCondition ref="J2:J159"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Rdata/GO_term_analysis/R_Maaslin2/MaAsLin2_COVIRT19_bac_pseq_no_neg/Significant_Go_terms_for_Beth_Maaslin2.xlsx
+++ b/Rdata/GO_term_analysis/R_Maaslin2/MaAsLin2_COVIRT19_bac_pseq_no_neg/Significant_Go_terms_for_Beth_Maaslin2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\microbial\Rdata\GO_term_analysis\R_Maaslin2\MaAsLin2_COVIRT19_bac_pseq_no_neg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D14D1BC-415D-46A6-8EB5-DFF1EBEDE1FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B8DB12-63CE-462B-A852-6E1BDD78E4D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="15" windowWidth="17190" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17190" yWindow="0" windowWidth="17205" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="4" r:id="rId1"/>
@@ -1760,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2428,7 +2428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A159"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
